--- a/Multipath.xlsx
+++ b/Multipath.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>site</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t xml:space="preserve">link cost</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
   <si>
     <t>c</t>
@@ -142,7 +145,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
       <sz val="10.000000"/>
     </font>
   </fonts>
@@ -734,42 +736,48 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2">
         <v>25</v>
@@ -777,19 +785,19 @@
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>25</v>
@@ -797,19 +805,19 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>25</v>
@@ -817,19 +825,19 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F6" s="2">
         <v>25</v>
@@ -837,19 +845,19 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
         <v>25</v>
@@ -857,19 +865,19 @@
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F8" s="2">
         <v>25</v>
@@ -877,19 +885,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
         <v>25</v>
@@ -897,19 +905,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>25</v>
@@ -917,19 +925,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
         <v>25</v>
@@ -937,19 +945,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F12" s="2">
         <v>25</v>
@@ -957,19 +965,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2">
         <v>25</v>
@@ -977,19 +985,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F14" s="2">
         <v>25</v>
@@ -997,19 +1005,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F15" s="2">
         <v>25</v>
@@ -1017,19 +1025,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2">
         <v>25</v>
@@ -1037,19 +1045,19 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F17" s="2">
         <v>25</v>
@@ -1057,19 +1065,19 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F18" s="2">
         <v>25</v>
@@ -1077,19 +1085,19 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2">
         <v>25</v>
@@ -1097,19 +1105,19 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F20" s="2">
         <v>25</v>
@@ -1117,19 +1125,19 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F21" s="2">
         <v>25</v>
@@ -1138,7 +1146,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Multipath.xlsx
+++ b/Multipath.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>site</t>
   </si>
@@ -90,7 +90,7 @@
     <t>192.168.1.16</t>
   </si>
   <si>
-    <t>r5</t>
+    <t>p</t>
   </si>
   <si>
     <t>192.168.1.17</t>
@@ -105,9 +105,6 @@
     <t>192.168.1.24</t>
   </si>
   <si>
-    <t>r6</t>
-  </si>
-  <si>
     <t>192.168.1.25</t>
   </si>
   <si>
@@ -115,21 +112,6 @@
   </si>
   <si>
     <t>192.168.1.29</t>
-  </si>
-  <si>
-    <t>192.168.1.32</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>192.168.1.33</t>
-  </si>
-  <si>
-    <t>192.168.1.36</t>
-  </si>
-  <si>
-    <t>192.168.1.37</t>
   </si>
 </sst>
 </file>
@@ -934,10 +916,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F11" s="2">
         <v>25</v>
@@ -971,13 +953,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F13" s="2">
         <v>25</v>
@@ -1028,16 +1010,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2">
         <v>25</v>
@@ -1045,103 +1027,48 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F17" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="18" ht="14.25"/>
     <row r="19" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="2">
-        <v>25</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="2">
-        <v>25</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2">
-        <v>25</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Multipath.xlsx
+++ b/Multipath.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>site</t>
   </si>
@@ -54,64 +54,118 @@
     <t>eth2</t>
   </si>
   <si>
-    <t>192.168.1.4</t>
+    <t>192.168.1.5</t>
   </si>
   <si>
     <t>r2</t>
   </si>
   <si>
-    <t>192.168.1.5</t>
+    <t>192.168.1.6</t>
   </si>
   <si>
     <t>eth3</t>
   </si>
   <si>
-    <t>192.168.1.8</t>
+    <t>192.168.1.9</t>
   </si>
   <si>
     <t>r3</t>
   </si>
   <si>
-    <t>192.168.1.9</t>
+    <t>192.168.1.10</t>
   </si>
   <si>
     <t>eth4</t>
   </si>
   <si>
-    <t>192.168.1.12</t>
+    <t>192.168.1.13</t>
   </si>
   <si>
     <t>r4</t>
   </si>
   <si>
-    <t>192.168.1.13</t>
-  </si>
-  <si>
-    <t>192.168.1.16</t>
+    <t>192.168.1.14</t>
+  </si>
+  <si>
+    <t>eth5</t>
+  </si>
+  <si>
+    <t>192.168.1.17</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>192.168.1.18</t>
+  </si>
+  <si>
+    <t>eth6</t>
+  </si>
+  <si>
+    <t>192.168.1.21</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>192.168.1.22</t>
+  </si>
+  <si>
+    <t>eth7</t>
+  </si>
+  <si>
+    <t>192.168.1.25</t>
+  </si>
+  <si>
+    <t>r7</t>
+  </si>
+  <si>
+    <t>192.168.1.26</t>
+  </si>
+  <si>
+    <t>192.168.1.29</t>
   </si>
   <si>
     <t>p</t>
   </si>
   <si>
-    <t>192.168.1.17</t>
-  </si>
-  <si>
-    <t>192.168.1.20</t>
-  </si>
-  <si>
-    <t>192.168.1.21</t>
-  </si>
-  <si>
-    <t>192.168.1.24</t>
-  </si>
-  <si>
-    <t>192.168.1.25</t>
-  </si>
-  <si>
-    <t>192.168.1.28</t>
-  </si>
-  <si>
-    <t>192.168.1.29</t>
+    <t>192.168.1.30</t>
+  </si>
+  <si>
+    <t>192.168.1.33</t>
+  </si>
+  <si>
+    <t>192.168.1.34</t>
+  </si>
+  <si>
+    <t>192.168.1.37</t>
+  </si>
+  <si>
+    <t>192.168.1.38</t>
+  </si>
+  <si>
+    <t>192.168.1.41</t>
+  </si>
+  <si>
+    <t>192.168.1.42</t>
+  </si>
+  <si>
+    <t>192.168.1.45</t>
+  </si>
+  <si>
+    <t>192.168.1.46</t>
+  </si>
+  <si>
+    <t>192.168.1.49</t>
+  </si>
+  <si>
+    <t>192.168.1.50</t>
+  </si>
+  <si>
+    <t>192.168.1.53</t>
+  </si>
+  <si>
+    <t>192.168.1.54</t>
   </si>
 </sst>
 </file>
@@ -127,6 +181,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <color indexed="64"/>
       <sz val="10.000000"/>
     </font>
   </fonts>
@@ -807,19 +862,19 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
         <v>25</v>
@@ -827,19 +882,19 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>25</v>
@@ -847,19 +902,19 @@
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>25</v>
@@ -867,19 +922,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2">
         <v>25</v>
@@ -887,19 +942,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2">
         <v>25</v>
@@ -907,19 +962,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
         <v>25</v>
@@ -927,19 +982,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
         <v>25</v>
@@ -947,19 +1002,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2">
         <v>25</v>
@@ -967,19 +1022,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2">
         <v>25</v>
@@ -987,19 +1042,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2">
         <v>25</v>
@@ -1007,19 +1062,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2">
         <v>25</v>
@@ -1027,48 +1082,263 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25"/>
-    <row r="19" ht="14.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="2">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
